--- a/models/Multi_dimentional_data_covar/02_Stimmung.xlsx
+++ b/models/Multi_dimentional_data_covar/02_Stimmung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-400" yWindow="40" windowWidth="28540" windowHeight="19120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Nutzungsbestimmungen</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Politische Stimmung in Deutschland</t>
+  </si>
+  <si>
+    <t>Datum</t>
   </si>
 </sst>
 </file>
@@ -505,7 +508,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I333" sqref="I333"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -558,6 +561,9 @@
       <c r="G5" s="16"/>
     </row>
     <row r="8" spans="2:9">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
